--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3570,210 +3570,210 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,213 +11573,213 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,1250 +13294,1250 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>violation</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>laws</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>regulations</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>5</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>6</v>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>authorization</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
-        <v>7</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
+      <c r="D269" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>violation</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>8</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>9</v>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>16</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>10</v>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>16</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>laws</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>11</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>16</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>12</v>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>16</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>regulations</t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>13</v>
-      </c>
-      <c r="E257" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>airspace</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>16</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>16</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>15</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>16</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>16</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>sure</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>17</v>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>16</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>18</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>16</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>19</v>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>16</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>20</v>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>16</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>proper</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>21</v>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>16</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>authorization</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>22</v>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>16</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>23</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>16</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>24</v>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>16</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>25</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>16</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>26</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>16</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>airspace</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>27</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/123/word_level_predictions_123.xlsx
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3570,210 +3570,210 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,237 +11549,237 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>13</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>13</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>13</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,1250 +13294,1250 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>16</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>14</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>16</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>17</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>16</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>18</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>16</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>19</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>16</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>20</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>16</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>21</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>16</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>22</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>16</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>23</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>16</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>24</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>16</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>25</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>26</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>27</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
